--- a/docs/excel/项目导入.xlsx
+++ b/docs/excel/项目导入.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangfan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D49C2F-9783-49D8-973B-087EF3C1D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>项目计划及预算表</t>
   </si>
@@ -35,7 +29,7 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>肥城市数字应急系统</t>
+    <t>肥城市数字应急系统test1</t>
   </si>
   <si>
     <t>项目编号</t>
@@ -89,13 +83,25 @@
     <t>合同额</t>
   </si>
   <si>
+    <t>100万</t>
+  </si>
+  <si>
     <t>合同额-产品</t>
   </si>
   <si>
+    <t>120万</t>
+  </si>
+  <si>
     <t>合同额-集成</t>
   </si>
   <si>
+    <t>102万</t>
+  </si>
+  <si>
     <t>合同额-服务</t>
+  </si>
+  <si>
+    <t>110万</t>
   </si>
   <si>
     <t>项目背景</t>
@@ -122,6 +128,9 @@
     <t>项目风险</t>
   </si>
   <si>
+    <t>暂无风险，冲鸭！</t>
+  </si>
+  <si>
     <t>阶段</t>
   </si>
   <si>
@@ -143,7 +152,7 @@
     <t>启动阶段</t>
   </si>
   <si>
-    <t>售前阶段成本</t>
+    <t>研发预算</t>
   </si>
   <si>
     <t>售前阶段交底</t>
@@ -191,7 +200,7 @@
     <t>设计阶段</t>
   </si>
   <si>
-    <t>项目实施成本</t>
+    <t>交付预算</t>
   </si>
   <si>
     <t>项目交付规划</t>
@@ -246,21 +255,21 @@
   </si>
   <si>
     <t>与用户阶段性确认设计成果</t>
-  </si>
-  <si>
-    <t>没有风险！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,12 +298,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -308,6 +311,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,24 +327,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,18 +483,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14978484450819421"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <fgColor theme="0" tint="-0.14981536301767"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149845881527146"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -516,21 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -562,6 +866,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -598,16 +917,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,143 +1184,175 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="项目计划表1"/>
@@ -1036,623 +1626,595 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="15.87890625" customWidth="1"/>
+    <col min="1" max="6" width="15.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="2" ht="31" customHeight="1" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:6">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B3" s="16">
         <v>44531</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D3" s="16">
         <v>44713</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F3" s="16">
         <v>44560</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="4" ht="31" customHeight="1" spans="1:6">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="10" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E4" s="17">
         <v>106800248</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" ht="31" customHeight="1" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="10" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" ht="31" customHeight="1" spans="1:6">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="10" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" ht="31" customHeight="1" spans="1:6">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="13" t="s">
+      <c r="E7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" ht="31" customHeight="1" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="34" t="s">
+      <c r="E8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="1:6">
+      <c r="A9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" ht="31" customHeight="1" spans="1:6">
+      <c r="A10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" ht="31" customHeight="1" spans="1:6">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" ht="31" customHeight="1" spans="1:6">
+      <c r="A12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" ht="31" customHeight="1" spans="1:6">
+      <c r="A13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" ht="31" customHeight="1" spans="1:6">
+      <c r="A14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" ht="31" customHeight="1" spans="1:6">
+      <c r="A15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:6">
+      <c r="A16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:C9 E9:F9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请注意" prompt="有合同的项目，合同编号不能为空；无合同的项目，合同编号为：/" sqref="E5:F5" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4 E5:F5 E6:F6">
+      <formula1>[1]配置!#REF!</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 E7 B8 E8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请注意" prompt="有合同的项目，合同编号不能为空；无合同的项目，合同编号为：/" sqref="E4:F4"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'C:\工作目录\9、其他文件\工时管理系统\参考资料\[肥城项目立项表0614.xlsx]配置'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5:C5 E6:F7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="B12:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.05859375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.52734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.05859375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.64453125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.41015625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.46875" customWidth="1"/>
+    <col min="1" max="1" width="17.0583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.525" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.0583333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.675" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.4416666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.7166666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.475" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="37"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37" t="s">
-        <v>43</v>
+    <row r="4" ht="13.5" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="37"/>
+    <row r="5" ht="13.5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
+    <row r="6" ht="13.5" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
+    <row r="7" ht="13.5" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="37" t="s">
-        <v>48</v>
+    <row r="8" ht="13.5" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="37"/>
+    <row r="9" ht="13.5" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37"/>
+    <row r="10" ht="13.5" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="37"/>
+    <row r="11" ht="13.5" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>56</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="28.7" x14ac:dyDescent="0.4">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="37" t="s">
-        <v>59</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
-        <v>61</v>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37"/>
+    <row r="19" ht="13.5" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="37"/>
+    <row r="20" ht="13.5" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37"/>
+    <row r="21" ht="13.5" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="37"/>
+    <row r="22" ht="13.5" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37"/>
+    <row r="23" ht="13.5" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="37" t="s">
-        <v>67</v>
-      </c>
+    <row r="24" ht="13.5" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="37"/>
+    <row r="25" ht="13.5" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="37"/>
+    <row r="26" ht="13.5" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.35" x14ac:dyDescent="0.4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A28"/>
+    <mergeCell ref="A12:A26"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="B12:B26"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="C22:C26"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>